--- a/Documents/Data/Dictionaries & Languages/Dictionaries And Language.xlsx
+++ b/Documents/Data/Dictionaries & Languages/Dictionaries And Language.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
   <si>
     <t>STT</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>How did an American immigrant without a college education go from Venice Beach t-shirt vendor to television's most successful producer? How did a timid pastor's son surmount a paralysing fear of public speaking to sell out Yankee Stadium, twice? How did the city of Tokyo create a PowerPoint stunning enough to win them the chance to host the Olympics? They told brilliant stories.</t>
+  </si>
+  <si>
+    <t>ISBN13</t>
   </si>
 </sst>
 </file>
@@ -220,7 +223,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
@@ -247,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -256,6 +258,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,25 +541,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.77734375" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" customWidth="1"/>
-    <col min="9" max="9" width="34.21875" customWidth="1"/>
+    <col min="2" max="2" width="112.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" customWidth="1"/>
+    <col min="10" max="10" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -570,20 +576,23 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -599,20 +608,23 @@
       <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="7">
+        <v>9780205309023</v>
+      </c>
+      <c r="G2" s="3">
         <v>7.86</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>36374</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -628,20 +640,23 @@
       <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="7">
+        <v>9781137585042</v>
+      </c>
+      <c r="G3" s="3">
         <v>18.45</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>42552</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>19</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -657,20 +672,23 @@
       <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="7">
+        <v>9781743214404</v>
+      </c>
+      <c r="G4" s="3">
         <v>5.47</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>42095</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>23</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -686,20 +704,23 @@
       <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="7">
+        <v>9780399162718</v>
+      </c>
+      <c r="G5" s="3">
         <v>13.55</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>41480</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>29</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -715,20 +736,23 @@
       <c r="E6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="7">
+        <v>9780521189064</v>
+      </c>
+      <c r="G6" s="3">
         <v>19.77</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>41022</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>34</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -744,20 +768,23 @@
       <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="7">
+        <v>9780071453875</v>
+      </c>
+      <c r="G7" s="3">
         <v>14.62</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>39812</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>39</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -773,20 +800,23 @@
       <c r="E8" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="7">
+        <v>9780060891541</v>
+      </c>
+      <c r="G8" s="3">
         <v>13.56</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>42465</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>44</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -802,20 +832,23 @@
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="7">
+        <v>9781472244444</v>
+      </c>
+      <c r="G9" s="3">
         <v>19.739999999999998</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>42493</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>49</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="69" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -831,20 +864,23 @@
       <c r="E10" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="7">
+        <v>9781447261131</v>
+      </c>
+      <c r="G10" s="3">
         <v>11.79</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>41711</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>49</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -860,16 +896,19 @@
       <c r="E11" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="7">
+        <v>9781509814756</v>
+      </c>
+      <c r="G11" s="3">
         <v>12.21</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>42425</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>49</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>55</v>
       </c>
     </row>

--- a/Documents/Data/Dictionaries & Languages/Dictionaries And Language.xlsx
+++ b/Documents/Data/Dictionaries & Languages/Dictionaries And Language.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -197,13 +197,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -211,14 +211,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -253,7 +253,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -543,24 +543,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="112.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="90.375" customWidth="1"/>
+    <col min="3" max="3" width="20.25" customWidth="1"/>
+    <col min="4" max="4" width="18.75" customWidth="1"/>
+    <col min="5" max="5" width="9.625" customWidth="1"/>
     <col min="6" max="6" width="16" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="23.28515625" customWidth="1"/>
-    <col min="10" max="10" width="34.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.875" customWidth="1"/>
+    <col min="8" max="8" width="16.375" customWidth="1"/>
+    <col min="9" max="9" width="23.25" customWidth="1"/>
+    <col min="10" max="10" width="34.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -592,7 +592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -624,7 +624,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -656,7 +656,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -688,7 +688,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -752,7 +752,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -784,7 +784,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -816,7 +816,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -848,7 +848,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -880,7 +880,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
